--- a/Materialer-Skruer-Tilbehør/EksamensProjekt_Fog - Skruer og tilbehør.xlsx
+++ b/Materialer-Skruer-Tilbehør/EksamensProjekt_Fog - Skruer og tilbehør.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\google drive\Datamatiker\2_semester\Eksamensprojekt\Kode\Materialer-Skruer-Tilbehør\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6390C38-E1DF-492A-AE69-CD603768828F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ark1" sheetId="1" r:id="rId4"/>
+    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Materialetype</t>
   </si>
@@ -143,29 +152,76 @@
   </si>
   <si>
     <t>til tagsten, alle ydersten + hver anden fastgøres. Fast pakke</t>
+  </si>
+  <si>
+    <t>Spær</t>
+  </si>
+  <si>
+    <t>45 x 95 mm</t>
+  </si>
+  <si>
+    <t>45 x 120 mm</t>
+  </si>
+  <si>
+    <t>45 x 195 mm</t>
+  </si>
+  <si>
+    <t>Stolper</t>
+  </si>
+  <si>
+    <t>100 x 100 mm</t>
+  </si>
+  <si>
+    <t>125 x 125 mm</t>
+  </si>
+  <si>
+    <t>Rem</t>
+  </si>
+  <si>
+    <t>45 x 145 mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,7 +229,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -183,48 +239,51 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -414,26 +473,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.43"/>
-    <col customWidth="1" min="2" max="2" width="52.57"/>
-    <col customWidth="1" min="3" max="3" width="17.71"/>
-    <col customWidth="1" min="4" max="4" width="7.29"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,12 +534,12 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -483,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -497,13 +561,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -511,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -525,25 +589,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>574.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -551,13 +615,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>131.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -565,23 +629,23 @@
         <v>14</v>
       </c>
       <c r="C10" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -589,18 +653,18 @@
         <v>18</v>
       </c>
       <c r="C13" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -608,13 +672,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <v>74.95</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -622,13 +686,13 @@
         <v>23</v>
       </c>
       <c r="C17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>219.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -636,13 +700,13 @@
         <v>25</v>
       </c>
       <c r="C18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -650,13 +714,13 @@
         <v>27</v>
       </c>
       <c r="C19" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -664,13 +728,13 @@
         <v>29</v>
       </c>
       <c r="C20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -678,18 +742,18 @@
         <v>31</v>
       </c>
       <c r="C21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>409.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -697,13 +761,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
         <v>11.7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -711,18 +775,18 @@
         <v>34</v>
       </c>
       <c r="C25" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5">
         <v>14.76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -736,7 +800,7 @@
         <v>48.95</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -744,13 +808,13 @@
         <v>41</v>
       </c>
       <c r="C29" s="7">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5">
-        <v>505.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -758,13 +822,64 @@
         <v>43</v>
       </c>
       <c r="C30" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="5">
-        <v>299.0</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Materialer-Skruer-Tilbehør/EksamensProjekt_Fog - Skruer og tilbehør.xlsx
+++ b/Materialer-Skruer-Tilbehør/EksamensProjekt_Fog - Skruer og tilbehør.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\google drive\Datamatiker\2_semester\Eksamensprojekt\Kode\Materialer-Skruer-Tilbehør\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6390C38-E1DF-492A-AE69-CD603768828F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EC4C66-7301-4ABA-B9CE-774EC2A38864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Materialetype</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>45 x 145 mm</t>
+  </si>
+  <si>
+    <t>1 m</t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
   </sheetPr>
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -534,12 +537,12 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -553,7 +556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -567,7 +570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -581,7 +584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -595,19 +598,19 @@
         <v>574</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -621,7 +624,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -635,17 +638,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -659,12 +662,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -678,7 +681,7 @@
         <v>74.95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -692,7 +695,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -706,7 +709,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -720,7 +723,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -734,7 +737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -748,12 +751,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -767,7 +770,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -781,12 +784,12 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
@@ -800,7 +803,7 @@
         <v>48.95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -814,7 +817,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -833,47 +836,53 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>47</v>
       </c>
